--- a/Face_recognition/Users/Thomas_Leong.xlsx
+++ b/Face_recognition/Users/Thomas_Leong.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.126678483</v>
+        <v>-0.112762204</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.061020912</v>
+        <v>0.072306708</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.018951677</v>
+        <v>0.023899527</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.027402144</v>
+        <v>-0.030462254</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.124602125</v>
+        <v>-0.108577096</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005614494</v>
+        <v>-0.006365621</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.061706534</v>
+        <v>-0.055250659</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.090582937</v>
+        <v>-0.088422219</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.143288242</v>
+        <v>0.167105222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.12817801</v>
+        <v>-0.122792308</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.181473874</v>
+        <v>0.213442</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.06757381699999999</v>
+        <v>-0.05514049</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.21938333</v>
+        <v>-0.204600673</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.034745219</v>
+        <v>-0.053341721</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.027738688</v>
+        <v>-0.045558062</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.152636049</v>
+        <v>0.184443749</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.193854262</v>
+        <v>-0.197074312</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.074349544</v>
+        <v>-0.099041133</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.006820444</v>
+        <v>-0.013795619</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.062161103</v>
+        <v>-0.03673556</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.069593952</v>
+        <v>0.061594099</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.009099692</v>
+        <v>-0.025699313</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.014065681</v>
+        <v>-0.023710238</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.061267894</v>
+        <v>0.057896242</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.114647499</v>
+        <v>-0.133828187</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.392834855</v>
+        <v>-0.36868403</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.114275001</v>
+        <v>-0.109605096</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.120818209</v>
+        <v>-0.095915009</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.03506459</v>
+        <v>-0.030088158</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.064853918</v>
+        <v>-0.072491135</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.009544789</v>
+        <v>-0.018630964</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.073427651</v>
+        <v>0.079319927</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.111064352</v>
+        <v>-0.148720098</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.003090175</v>
+        <v>-0.022792984</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.009666315</v>
+        <v>-0.008765386999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.109219658</v>
+        <v>0.118602343</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.032326766</v>
+        <v>-0.038934926</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.052758728</v>
+        <v>-0.039579137</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.169724538</v>
+        <v>0.162577198</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.005035899</v>
+        <v>0.019192082</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.138641554</v>
+        <v>-0.161141218</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.053244414</v>
+        <v>0.003062378</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.038858242</v>
+        <v>0.033049218</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.24274307</v>
+        <v>0.239546616</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.163513191</v>
+        <v>0.177047563</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.051116353</v>
+        <v>0.068804062</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.001092011</v>
+        <v>0.010591889</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.053277342</v>
+        <v>-0.07192703</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.079333686</v>
+        <v>0.06995887100000001</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.195762995</v>
+        <v>-0.196613382</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.019693002</v>
+        <v>-0.007997990999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.149492952</v>
+        <v>0.146110022</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.02009164</v>
+        <v>0.034159709</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.06570166500000001</v>
+        <v>0.07580181900000001</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.037661773</v>
+        <v>0.0385001</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.111983</v>
+        <v>-0.132792388</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.038412448</v>
+        <v>0.053733831</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.07953394599999999</v>
+        <v>0.058400637</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.167721279</v>
+        <v>-0.164725623</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.016119826</v>
+        <v>-0.003868319</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.030105691</v>
+        <v>0.02610115</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.132015279</v>
+        <v>-0.110723401</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.039462786</v>
+        <v>-0.022447708</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.027413017</v>
+        <v>-0.033501249</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.252350948</v>
+        <v>0.246046623</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.138533304</v>
+        <v>0.111143774</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.07761779100000001</v>
+        <v>-0.080238776</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.140388603</v>
+        <v>-0.142719408</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.138053338</v>
+        <v>0.149028047</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.183796112</v>
+        <v>-0.168911057</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.101954646</v>
+        <v>-0.089806935</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.005675864</v>
+        <v>0.018239275</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.161480877</v>
+        <v>-0.134236604</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.188479697</v>
+        <v>-0.194164363</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.289093517</v>
+        <v>-0.303937759</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.02563305</v>
+        <v>0.023312531</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.388048452</v>
+        <v>0.407009921</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.154274094</v>
+        <v>0.157911062</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.155917216</v>
+        <v>-0.166590416</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.030722257</v>
+        <v>0.060352089</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.025925709</v>
+        <v>-0.021738618</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.053582725</v>
+        <v>-0.058520259</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.178587875</v>
+        <v>0.142552944</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.153046144</v>
+        <v>0.136046735</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003350678</v>
+        <v>-0.009804581999999999</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.060212313</v>
+        <v>-0.019257674</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.086120408</v>
+        <v>-0.095327939</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.040596105</v>
+        <v>0.023715634</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.172546542</v>
+        <v>0.180788449</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.054236591</v>
+        <v>-0.035619819</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.041199897</v>
+        <v>-0.025904433</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.196067164</v>
+        <v>0.188588344</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.018933806</v>
+        <v>-0.017180426</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.07111259</v>
+        <v>0.073215656</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.022802495</v>
+        <v>0.026100641</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.00681958</v>
+        <v>-0.008216007000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.07172655999999999</v>
+        <v>-0.07341141</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.030895827</v>
+        <v>0.047332471</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.099061119</v>
+        <v>-0.101014931</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.034067151</v>
+        <v>-0.03616047</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.08603074300000001</v>
+        <v>0.07027341099999999</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.029901895</v>
+        <v>-0.034277965</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.000401306</v>
+        <v>-0.003362752</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.118965604</v>
+        <v>0.09693163</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.152691807</v>
+        <v>-0.147642394</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.09875015500000001</v>
+        <v>0.120790772</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.005817677</v>
+        <v>-0.011430586</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.019021206</v>
+        <v>-0.007199738</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.026781745</v>
+        <v>-0.011574639</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.017861709</v>
+        <v>0.020155692</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.147992226</v>
+        <v>-0.13941304</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.048694187</v>
+        <v>-0.019347791</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.187095178</v>
+        <v>0.172915027</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.204696</v>
+        <v>-0.237599457</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.171753195</v>
+        <v>0.198690078</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.182443272</v>
+        <v>0.194770512</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.007880895000000001</v>
+        <v>0.000383831</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.162229952</v>
+        <v>0.138165022</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.08051415000000001</v>
+        <v>0.11136926</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.090352469</v>
+        <v>0.087276929</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.010343106</v>
+        <v>-0.025848243</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.042925113</v>
+        <v>-0.021083716</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.220258524</v>
+        <v>-0.206840021</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.001572158</v>
+        <v>-0.028565298</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.064464088</v>
+        <v>0.050650793</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.006704533</v>
+        <v>-0.032157647</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.020846194</v>
+        <v>0.07225398299999999</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.006376334</v>
+        <v>0.010538543</v>
       </c>
     </row>
   </sheetData>

--- a/Face_recognition/Users/Thomas_Leong.xlsx
+++ b/Face_recognition/Users/Thomas_Leong.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.112762204</v>
+        <v>-0.12624359</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.072306708</v>
+        <v>0.09411638999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.023899527</v>
+        <v>0.032708502</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.030462254</v>
+        <v>-0.029863991</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.108577096</v>
+        <v>-0.103837822</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.006365621</v>
+        <v>0.013158086</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.055250659</v>
+        <v>-0.051246097</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.088422219</v>
+        <v>-0.08641138700000001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.167105222</v>
+        <v>0.182111646</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.122792308</v>
+        <v>-0.127627576</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.213442</v>
+        <v>0.222087311</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.05514049</v>
+        <v>-0.053787121</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.204600673</v>
+        <v>-0.196904561</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.053341721</v>
+        <v>-0.028211041</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.045558062</v>
+        <v>-0.049151342</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.184443749</v>
+        <v>0.186300519</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.197074312</v>
+        <v>-0.189111967</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.099041133</v>
+        <v>-0.091493299</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.013795619</v>
+        <v>-0.005101915</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.03673556</v>
+        <v>-0.036684607</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.061594099</v>
+        <v>0.090599727</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.025699313</v>
+        <v>-0.014777708</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.023710238</v>
+        <v>-0.027867428</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.057896242</v>
+        <v>0.057227232</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.133828187</v>
+        <v>-0.128773593</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.36868403</v>
+        <v>-0.385388225</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.109605096</v>
+        <v>-0.122529604</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.095915009</v>
+        <v>-0.080417161</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.030088158</v>
+        <v>-0.027824816</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.072491135</v>
+        <v>-0.063261239</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.018630964</v>
+        <v>-0.020455327</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.079319927</v>
+        <v>0.089136652</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.148720098</v>
+        <v>-0.133519368</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.022792984</v>
+        <v>-0.006045037</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.008765386999999999</v>
+        <v>-0.009464441000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.118602343</v>
+        <v>0.122711945</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.038934926</v>
+        <v>-0.028501902</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.039579137</v>
+        <v>-0.045156245</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.162577198</v>
+        <v>0.135105406</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.019192082</v>
+        <v>0.020500128</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.161141218</v>
+        <v>-0.160642734</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.003062378</v>
+        <v>0.014893864</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.033049218</v>
+        <v>0.026857979</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.239546616</v>
+        <v>0.246309005</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.177047563</v>
+        <v>0.170877265</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.068804062</v>
+        <v>0.059645217</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.010591889</v>
+        <v>0.016671458</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.07192703</v>
+        <v>-0.093899184</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.06995887100000001</v>
+        <v>0.064547434</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.196613382</v>
+        <v>-0.178134309</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.007997990999999999</v>
+        <v>-0.002865118</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.146110022</v>
+        <v>0.153960088</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.034159709</v>
+        <v>0.021178534</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.07580181900000001</v>
+        <v>0.08381686300000001</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0385001</v>
+        <v>0.021155395</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.132792388</v>
+        <v>-0.106771342</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.053733831</v>
+        <v>0.056876259</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.058400637</v>
+        <v>0.058738168</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.164725623</v>
+        <v>-0.164568144</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.003868319</v>
+        <v>-0.009401573</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.02610115</v>
+        <v>0.050557425</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.110723401</v>
+        <v>-0.117685655</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.022447708</v>
+        <v>-0.039096748</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.033501249</v>
+        <v>-0.043298167</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.246046623</v>
+        <v>0.214766519</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.111143774</v>
+        <v>0.139116984</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.080238776</v>
+        <v>-0.071560575</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.142719408</v>
+        <v>-0.18093735</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.149028047</v>
+        <v>0.129504554</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.168911057</v>
+        <v>-0.176882974</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.089806935</v>
+        <v>-0.104374879</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.018239275</v>
+        <v>0.017212024</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.134236604</v>
+        <v>-0.156418856</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.194164363</v>
+        <v>-0.190939315</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.303937759</v>
+        <v>-0.295914991</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.023312531</v>
+        <v>0.026002405</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.407009921</v>
+        <v>0.403268625</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.157911062</v>
+        <v>0.160896522</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.166590416</v>
+        <v>-0.162797174</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.060352089</v>
+        <v>0.058334131</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.021738618</v>
+        <v>-0.022784816</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.058520259</v>
+        <v>-0.03486943</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.142552944</v>
+        <v>0.157999211</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.136046735</v>
+        <v>0.147845951</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.009804581999999999</v>
+        <v>-0.006192601</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.019257674</v>
+        <v>-0.03451182</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.095327939</v>
+        <v>-0.10377008</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.023715634</v>
+        <v>0.028215799</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.180788449</v>
+        <v>0.185905203</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.035619819</v>
+        <v>-0.037139606</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.025904433</v>
+        <v>-0.036701904</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.188588344</v>
+        <v>0.19790737</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.017180426</v>
+        <v>-0.00945644</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.073215656</v>
+        <v>0.066639745</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.026100641</v>
+        <v>0.020686174</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.008216007000000001</v>
+        <v>0.012154574</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.07341141</v>
+        <v>-0.075467799</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.047332471</v>
+        <v>0.04821063</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.101014931</v>
+        <v>-0.103671394</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.03616047</v>
+        <v>-0.058680602</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.07027341099999999</v>
+        <v>0.060657705</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.034277965</v>
+        <v>-0.012317024</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.003362752</v>
+        <v>-0.019582391</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.09693163</v>
+        <v>0.104322279</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.147642394</v>
+        <v>-0.160263228</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.120790772</v>
+        <v>0.140452895</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.011430586</v>
+        <v>-0.02031565</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.007199738</v>
+        <v>0.012640599</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.011574639</v>
+        <v>0.013362377</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.020155692</v>
+        <v>0.007715074</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.13941304</v>
+        <v>-0.126808709</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.019347791</v>
+        <v>-0.021930395</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.172915027</v>
+        <v>0.167045393</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.237599457</v>
+        <v>-0.215533101</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.198690078</v>
+        <v>0.167342529</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.194770512</v>
+        <v>0.193211891</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.000383831</v>
+        <v>0.013022365</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.138165022</v>
+        <v>0.135881939</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.11136926</v>
+        <v>0.112122001</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.087276929</v>
+        <v>0.102993511</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.025848243</v>
+        <v>-0.028301362</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.021083716</v>
+        <v>-0.026869552</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.206840021</v>
+        <v>-0.221509321</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.028565298</v>
+        <v>-0.009901827</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.050650793</v>
+        <v>0.05394556</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.032157647</v>
+        <v>-0.019438825</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.07225398299999999</v>
+        <v>0.041901494</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.010538543</v>
+        <v>-0.006606735</v>
       </c>
     </row>
   </sheetData>

--- a/Face_recognition/Users/Thomas_Leong.xlsx
+++ b/Face_recognition/Users/Thomas_Leong.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.12624359</v>
+        <v>-0.119797722</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09411638999999999</v>
+        <v>0.07688874800000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.032708502</v>
+        <v>0.054059894</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.029863991</v>
+        <v>-0.034182425</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.103837822</v>
+        <v>-0.101473084</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.013158086</v>
+        <v>-0.007896975000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.051246097</v>
+        <v>-0.051931432</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.08641138700000001</v>
+        <v>-0.086817955</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.182111646</v>
+        <v>0.137987241</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.127627576</v>
+        <v>-0.115498747</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.222087311</v>
+        <v>0.214650713</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.053787121</v>
+        <v>-0.078397147</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.196904561</v>
+        <v>-0.209392647</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.028211041</v>
+        <v>-0.048064278</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.049151342</v>
+        <v>-0.036200418</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.186300519</v>
+        <v>0.201270506</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.189111967</v>
+        <v>-0.189095908</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.091493299</v>
+        <v>-0.09844990200000001</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.005101915</v>
+        <v>-0.03478874</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.036684607</v>
+        <v>-0.028862951</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.090599727</v>
+        <v>0.061197892</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.014777708</v>
+        <v>-0.008854357</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.027867428</v>
+        <v>-0.007602933</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.057227232</v>
+        <v>0.06591709799999999</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.128773593</v>
+        <v>-0.112905989</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.385388225</v>
+        <v>-0.386087108</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.122529604</v>
+        <v>-0.096776372</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.080417161</v>
+        <v>-0.101203849</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.027824816</v>
+        <v>-0.035244632</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.063261239</v>
+        <v>-0.048779529</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.020455327</v>
+        <v>-0.031153585</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.089136652</v>
+        <v>0.08557764800000001</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.133519368</v>
+        <v>-0.144997449</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.006045037</v>
+        <v>-0.014993015</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.009464441000000001</v>
+        <v>0.002177149</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.122711945</v>
+        <v>0.109019404</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.028501902</v>
+        <v>-0.026446465</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.045156245</v>
+        <v>-0.048575775</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.135105406</v>
+        <v>0.156065121</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.020500128</v>
+        <v>-0.007661289</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.160642734</v>
+        <v>-0.188228932</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.014893864</v>
+        <v>0.000501436</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.026857979</v>
+        <v>0.061894001</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.246309005</v>
+        <v>0.245033195</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.170877265</v>
+        <v>0.198330643</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.059645217</v>
+        <v>0.054692221</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.016671458</v>
+        <v>0.009276585</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.093899184</v>
+        <v>-0.075219682</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.064547434</v>
+        <v>0.058271434</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.178134309</v>
+        <v>-0.18944749</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.002865118</v>
+        <v>0.008419799</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.153960088</v>
+        <v>0.126162244</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.021178534</v>
+        <v>0.036734427</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.08381686300000001</v>
+        <v>0.065902445</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.021155395</v>
+        <v>0.028306964</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.106771342</v>
+        <v>-0.11633056</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.056876259</v>
+        <v>0.050539683</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.058738168</v>
+        <v>0.087997513</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.164568144</v>
+        <v>-0.17004001</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.009401573</v>
+        <v>-0.002573833</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.050557425</v>
+        <v>0.054007944</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.117685655</v>
+        <v>-0.138311724</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.039096748</v>
+        <v>-0.023326724</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.043298167</v>
+        <v>-0.046482452</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.214766519</v>
+        <v>0.257903273</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.139116984</v>
+        <v>0.121571122</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.071560575</v>
+        <v>-0.08542192</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.18093735</v>
+        <v>-0.148741736</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.129504554</v>
+        <v>0.138948132</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.176882974</v>
+        <v>-0.167508228</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.104374879</v>
+        <v>-0.081331633</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.017212024</v>
+        <v>0.011027774</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.156418856</v>
+        <v>-0.155316033</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.190939315</v>
+        <v>-0.175484843</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.295914991</v>
+        <v>-0.313239386</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.026002405</v>
+        <v>0.017275589</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.403268625</v>
+        <v>0.395232067</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.160896522</v>
+        <v>0.154025846</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.162797174</v>
+        <v>-0.170369665</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.058334131</v>
+        <v>0.057416646</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.022784816</v>
+        <v>-0.02373501</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.03486943</v>
+        <v>-0.028185549</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.157999211</v>
+        <v>0.155944018</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.147845951</v>
+        <v>0.150390408</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.006192601</v>
+        <v>-0.014072077</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.03451182</v>
+        <v>-0.031403673</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.10377008</v>
+        <v>-0.09384733100000001</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.028215799</v>
+        <v>0.027650788</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.185905203</v>
+        <v>0.185697065</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.037139606</v>
+        <v>-0.038783908</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.036701904</v>
+        <v>-0.021694231</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.19790737</v>
+        <v>0.197443221</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.00945644</v>
+        <v>-0.019445709</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.066639745</v>
+        <v>0.03499153</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.020686174</v>
+        <v>0.023008535</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.012154574</v>
+        <v>-0.020453449</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.075467799</v>
+        <v>-0.069337704</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.04821063</v>
+        <v>0.031793098</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.103671394</v>
+        <v>-0.128090305</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.058680602</v>
+        <v>-0.042212222</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.060657705</v>
+        <v>0.038026615</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.012317024</v>
+        <v>-0.023195217</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.019582391</v>
+        <v>0.004084266</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.104322279</v>
+        <v>0.105436721</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.160263228</v>
+        <v>-0.159661869</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.140452895</v>
+        <v>0.091952768</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.02031565</v>
+        <v>-0.016093446</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.012640599</v>
+        <v>0.00221898</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.013362377</v>
+        <v>0.017915203</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.007715074</v>
+        <v>0.007059603</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.126808709</v>
+        <v>-0.118339958</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.021930395</v>
+        <v>-0.046454393</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.167045393</v>
+        <v>0.162753485</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.215533101</v>
+        <v>-0.205935579</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.167342529</v>
+        <v>0.16621548</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.193211891</v>
+        <v>0.181463042</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.013022365</v>
+        <v>0.034797348</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.135881939</v>
+        <v>0.132341751</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.112122001</v>
+        <v>0.112849102</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.102993511</v>
+        <v>0.09865254900000001</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.028301362</v>
+        <v>-0.023861885</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.026869552</v>
+        <v>-0.023142107</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.221509321</v>
+        <v>-0.219183595</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.009901827</v>
+        <v>0.009495023</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.05394556</v>
+        <v>0.095938732</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.019438825</v>
+        <v>-0.020594821</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.041901494</v>
+        <v>0.091000901</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.006606735</v>
+        <v>0.014147956</v>
       </c>
     </row>
   </sheetData>
